--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3944.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3944.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.227517744709066</v>
+        <v>0.3620791435241699</v>
       </c>
       <c r="B1">
-        <v>2.081180696642394</v>
+        <v>0.9812839031219482</v>
       </c>
       <c r="C1">
-        <v>6.077033802278079</v>
+        <v>4.841172695159912</v>
       </c>
       <c r="D1">
-        <v>4.060071090525239</v>
+        <v>1.783223390579224</v>
       </c>
       <c r="E1">
-        <v>1.433784341933355</v>
+        <v>1.010960578918457</v>
       </c>
     </row>
   </sheetData>
